--- a/src/Plant01.Upper.Infrastructure/Configs/tags.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154F1BC-2E08-4E41-8613-4AA381ADD938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F776B-5D45-4F77-AF39-8BC93719E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2385EA93-93B8-4DE4-B674-3B49ACE6EACA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -810,6 +810,10 @@
   </si>
   <si>
     <t>DB201.104</t>
+  </si>
+  <si>
+    <t>ChannelCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1818,7 +1822,7 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1836,7 +1840,7 @@
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1882,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>22</v>
